--- a/InternshipResearchSpecies.xlsx
+++ b/InternshipResearchSpecies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linds\Documents\Internship Research Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E84117-9E88-43DD-8CC5-83052CA90523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288FCE5-9A5A-43DA-8BF1-4ACE3BD210FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1470" windowWidth="29040" windowHeight="15840" xr2:uid="{6AD8766E-1F78-409C-9709-C51344209B58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AD8766E-1F78-409C-9709-C51344209B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>Sun conures</t>
   </si>
@@ -193,9 +193,6 @@
     <t>• Known to show minor aggression (female cockatiels, green wood-hoopoe, and people)</t>
   </si>
   <si>
-    <t>• Aggressive behavior with ground-dwelling birds (aggressive vocalizing and displaying)</t>
-  </si>
-  <si>
     <t>• Interactive with people they are familiar with</t>
   </si>
   <si>
@@ -208,18 +205,9 @@
     <t>• Occasional aggression with the tragopans (Philadelphia Zoo)</t>
   </si>
   <si>
-    <t>• Aggression towards all birds except ground birds</t>
-  </si>
-  <si>
-    <t>• Aggression especially towards Blue Jays, Starlings, and Fairy Bluebird</t>
-  </si>
-  <si>
     <t>• Occasional aggression with other red-whiskered bulbuls leading to the removal of some individuals from the habitat</t>
   </si>
   <si>
-    <t>• Female rosellas involved in aggression with female budgies (Woodland Park Zoo)</t>
-  </si>
-  <si>
     <t>• Known to attack all other birds (cockatiels, mynah, other sun conures)</t>
   </si>
   <si>
@@ -241,9 +229,6 @@
     <t>• Aggression towards people (wingslapping)</t>
   </si>
   <si>
-    <t>• Aggression towards the public</t>
-  </si>
-  <si>
     <t>• Known to attack and displace other birds</t>
   </si>
   <si>
@@ -251,13 +236,155 @@
   </si>
   <si>
     <t>• Injured Indian Hill Mynah</t>
+  </si>
+  <si>
+    <t>Taveta Golden Weaver</t>
+  </si>
+  <si>
+    <t>White-Headed Buffalo Weaver</t>
+  </si>
+  <si>
+    <t>Northern Crested Coua</t>
+  </si>
+  <si>
+    <t>• Was never released to the aviary, however showed aggressive behavior with ground-dwelling birds (aggressive vocalizing and displaying)</t>
+  </si>
+  <si>
+    <t>Aggressive behavior included pecking, biting, and pulling feathers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aggressive behavior was seen once there was more than one individual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aggression towards all birds except ground birds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aggression especially towards Blue Jays, Starlings, and Fairy Bluebird</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Female rosellas involved in aggression with female budgies (Woodland Park Zoo)</t>
+    </r>
+  </si>
+  <si>
+    <t>• Territorial</t>
+  </si>
+  <si>
+    <t>•  Would injure wings by hitting the rock boulders in the process of wingslapping</t>
+  </si>
+  <si>
+    <t>• Became the vicim of aggression when moved to a bigger aviary</t>
+  </si>
+  <si>
+    <t>Tavata Golden Weavers</t>
+  </si>
+  <si>
+    <t>•  Aggressive towards other birds</t>
+  </si>
+  <si>
+    <t>White Headed Buffalo Weavers</t>
+  </si>
+  <si>
+    <t>• Aggressive towards other birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Aggressive towards other birds when there was more than one. If it was a single Coua, there was no signs of aggressive behavior. </t>
+  </si>
+  <si>
+    <t>• No aggressive behavior when in stall with another Jackson’s hornbill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• One instance includes grabbing and throwing a cockatiel by the neck </t>
+  </si>
+  <si>
+    <t>• Aggression towards other birds, however, there was rarely any direct contact because the birds would run from them</t>
+  </si>
+  <si>
+    <t>• Aggression towards the public in the form of hard pecking near the face and eyes of children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LInk to Website     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +434,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -335,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -689,22 +830,22 @@
   <dimension ref="A1:BC56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
-    <col min="3" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="17" width="18.109375" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
-    <col min="19" max="19" width="23.21875" customWidth="1"/>
-    <col min="20" max="55" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="2" customWidth="1"/>
+    <col min="3" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="17" width="18.08984375" customWidth="1"/>
+    <col min="18" max="18" width="23.36328125" customWidth="1"/>
+    <col min="19" max="19" width="23.1796875" customWidth="1"/>
+    <col min="20" max="55" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -796,7 +937,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
@@ -857,7 +998,7 @@
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>31</v>
       </c>
@@ -918,7 +1059,7 @@
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -979,7 +1120,7 @@
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1181,7 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1244,7 @@
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1313,7 @@
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1374,7 @@
       <c r="BB8" s="4"/>
       <c r="BC8" s="4"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1435,7 @@
       <c r="BB9" s="4"/>
       <c r="BC9" s="4"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1500,7 @@
       <c r="BB10" s="4"/>
       <c r="BC10" s="4"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1561,7 @@
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1622,7 @@
       <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -1542,30 +1683,30 @@
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -1603,13 +1744,11 @@
       <c r="BB14" s="4"/>
       <c r="BC14" s="4"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1624,7 +1763,9 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="4"/>
@@ -1664,11 +1805,13 @@
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1684,9 +1827,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1725,13 +1866,11 @@
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1742,14 +1881,14 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="S17" s="7"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -1788,12 +1927,12 @@
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1805,7 +1944,9 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1849,22 +1990,20 @@
       <c r="BB18" s="4"/>
       <c r="BC18" s="4"/>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1912,27 +2051,29 @@
       <c r="BB19" s="4"/>
       <c r="BC19" s="4"/>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -1973,30 +2114,30 @@
       <c r="BB20" s="4"/>
       <c r="BC20" s="4"/>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -2034,27 +2175,27 @@
       <c r="BB21" s="4"/>
       <c r="BC21" s="4"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -2095,22 +2236,20 @@
       <c r="BB22" s="4"/>
       <c r="BC22" s="4"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2158,14 +2297,14 @@
       <c r="BB23" s="4"/>
       <c r="BC23" s="4"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="11"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2219,14 +2358,16 @@
       <c r="BB24" s="4"/>
       <c r="BC24" s="4"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2280,7 +2421,13 @@
       <c r="BB25" s="4"/>
       <c r="BC25" s="4"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2335,25 +2482,30 @@
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -2391,24 +2543,30 @@
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -2446,64 +2604,7 @@
       <c r="BB28" s="4"/>
       <c r="BC28" s="4"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -2560,7 +2661,7 @@
       <c r="BB30" s="4"/>
       <c r="BC30" s="4"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -2617,7 +2718,7 @@
       <c r="BB31" s="4"/>
       <c r="BC31" s="4"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -2674,7 +2775,7 @@
       <c r="BB32" s="4"/>
       <c r="BC32" s="4"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -2731,7 +2832,7 @@
       <c r="BB33" s="4"/>
       <c r="BC33" s="4"/>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -2788,7 +2889,7 @@
       <c r="BB34" s="4"/>
       <c r="BC34" s="4"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2845,7 +2946,7 @@
       <c r="BB35" s="4"/>
       <c r="BC35" s="4"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2902,7 +3003,7 @@
       <c r="BB36" s="4"/>
       <c r="BC36" s="4"/>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -2959,7 +3060,7 @@
       <c r="BB37" s="4"/>
       <c r="BC37" s="4"/>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -3016,7 +3117,7 @@
       <c r="BB38" s="4"/>
       <c r="BC38" s="4"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -3073,7 +3174,7 @@
       <c r="BB39" s="4"/>
       <c r="BC39" s="4"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -3130,7 +3231,7 @@
       <c r="BB40" s="4"/>
       <c r="BC40" s="4"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -3187,7 +3288,7 @@
       <c r="BB41" s="4"/>
       <c r="BC41" s="4"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -3244,7 +3345,7 @@
       <c r="BB42" s="4"/>
       <c r="BC42" s="4"/>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -3301,7 +3402,7 @@
       <c r="BB43" s="4"/>
       <c r="BC43" s="4"/>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -3358,7 +3459,7 @@
       <c r="BB44" s="4"/>
       <c r="BC44" s="4"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -3415,7 +3516,7 @@
       <c r="BB45" s="4"/>
       <c r="BC45" s="4"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -3472,7 +3573,7 @@
       <c r="BB46" s="4"/>
       <c r="BC46" s="4"/>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -3529,7 +3630,7 @@
       <c r="BB47" s="4"/>
       <c r="BC47" s="4"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -3586,7 +3687,7 @@
       <c r="BB48" s="4"/>
       <c r="BC48" s="4"/>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -3643,7 +3744,7 @@
       <c r="BB49" s="4"/>
       <c r="BC49" s="4"/>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -3700,7 +3801,7 @@
       <c r="BB50" s="4"/>
       <c r="BC50" s="4"/>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -3757,7 +3858,7 @@
       <c r="BB51" s="4"/>
       <c r="BC51" s="4"/>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -3814,7 +3915,7 @@
       <c r="BB52" s="4"/>
       <c r="BC52" s="4"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -3871,7 +3972,7 @@
       <c r="BB53" s="4"/>
       <c r="BC53" s="4"/>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -3928,7 +4029,7 @@
       <c r="BB54" s="4"/>
       <c r="BC54" s="4"/>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -3985,7 +4086,7 @@
       <c r="BB55" s="4"/>
       <c r="BC55" s="4"/>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.35">
       <c r="L56" s="4"/>
     </row>
   </sheetData>
@@ -3994,84 +4095,90 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" location="sun-conures" xr:uid="{01F08F1A-BF01-4D9B-8BAB-A8C09C8E4679}"/>
+    <hyperlink ref="B19" r:id="rId1" location="sun-conures" xr:uid="{01F08F1A-BF01-4D9B-8BAB-A8C09C8E4679}"/>
     <hyperlink ref="B11" r:id="rId2" location="hawk-headed-parrot" xr:uid="{0CBF6C01-A42C-4100-8DB4-7BF6A7D9FF86}"/>
     <hyperlink ref="B7" r:id="rId3" location="blue-crowned-lory" xr:uid="{C22D5FA8-B4F0-4FB2-B407-5FF73ABBD077}"/>
     <hyperlink ref="C7" r:id="rId4" location="blue-crowned-lory" xr:uid="{32368C35-2858-403B-9A29-54DB892B6FB8}"/>
     <hyperlink ref="F7" r:id="rId5" location="blue-crowned-lory" xr:uid="{A1D05659-193A-4C1E-87E2-C9208CBE6680}"/>
     <hyperlink ref="G7" r:id="rId6" location="blue-crowned-lory" xr:uid="{242AC334-AC7B-45BC-ABA5-56F8BD8AAB93}"/>
     <hyperlink ref="H7" r:id="rId7" location="blue-crowned-lory" xr:uid="{86B74CD8-82B6-4CD9-8EE2-2F95358BF369}"/>
-    <hyperlink ref="B25" r:id="rId8" location="yellow-faced-mynahs" xr:uid="{27E5FEAD-9870-492A-B4C9-C82EAFCCC6E3}"/>
-    <hyperlink ref="B15" r:id="rId9" location="red-crested-cardinal" xr:uid="{0F95FDAD-11D9-4DF1-9F7F-0B75341BE9A6}"/>
-    <hyperlink ref="C22" r:id="rId10" location="victoria-crowned-pidgeon" xr:uid="{B8A4C2F1-64A0-4D2D-B383-B90694FA57D1}"/>
+    <hyperlink ref="B28" r:id="rId8" location="yellow-faced-mynahs" xr:uid="{27E5FEAD-9870-492A-B4C9-C82EAFCCC6E3}"/>
+    <hyperlink ref="B16" r:id="rId9" location="red-crested-cardinal" xr:uid="{0F95FDAD-11D9-4DF1-9F7F-0B75341BE9A6}"/>
+    <hyperlink ref="C24" r:id="rId10" location="victoria-crowned-pidgeon" xr:uid="{B8A4C2F1-64A0-4D2D-B383-B90694FA57D1}"/>
     <hyperlink ref="D6" r:id="rId11" location="blue-bellied-roller" xr:uid="{2C9A936F-1567-4411-97D9-D8C6A36CB0ED}"/>
     <hyperlink ref="S6" r:id="rId12" location="blue-bellied-roller" xr:uid="{90917A0A-F144-4C8B-B3B0-5EF232F1870A}"/>
-    <hyperlink ref="C19" r:id="rId13" location="superb-starling" xr:uid="{4D7D2D87-90F2-418F-B8C2-913C42C8F421}"/>
-    <hyperlink ref="I19" r:id="rId14" location="superb-starling" xr:uid="{0AC4A50E-F90C-4084-96FC-1D8A97385C69}"/>
-    <hyperlink ref="B24" r:id="rId15" location="white-crested-laughing-thrush" xr:uid="{8A161CA7-17C5-45C3-870E-1EB3E764CC3B}"/>
+    <hyperlink ref="C20" r:id="rId13" location="superb-starling" xr:uid="{4D7D2D87-90F2-418F-B8C2-913C42C8F421}"/>
+    <hyperlink ref="I20" r:id="rId14" location="superb-starling" xr:uid="{0AC4A50E-F90C-4084-96FC-1D8A97385C69}"/>
+    <hyperlink ref="B27" r:id="rId15" location="white-crested-laughing-thrush" xr:uid="{8A161CA7-17C5-45C3-870E-1EB3E764CC3B}"/>
     <hyperlink ref="B12" r:id="rId16" location="jacksons-hornbill" xr:uid="{BD671B5C-3CFD-44C1-99BE-43BE2A6D3295}"/>
-    <hyperlink ref="B23" r:id="rId17" location="vulturine-guineafowl" xr:uid="{3F4A6CA5-745C-4D94-9F09-BA067800341C}"/>
-    <hyperlink ref="C23" r:id="rId18" location="vulturine-guineafowl" xr:uid="{79ADB61F-4EEE-4D06-8832-C155EA453AE5}"/>
+    <hyperlink ref="B25" r:id="rId17" location="vulturine-guineafowl" xr:uid="{3F4A6CA5-745C-4D94-9F09-BA067800341C}"/>
+    <hyperlink ref="C25" r:id="rId18" location="vulturine-guineafowl" xr:uid="{79ADB61F-4EEE-4D06-8832-C155EA453AE5}"/>
     <hyperlink ref="C5" r:id="rId19" location="blue-jay" xr:uid="{56E2EB4D-0626-4B87-A227-DB11EFFB46D6}"/>
     <hyperlink ref="C2" r:id="rId20" location="african-grey-parrot" xr:uid="{6730C080-AFE8-4991-B673-9F1BA3B225B0}"/>
     <hyperlink ref="E3" r:id="rId21" location="baltimore-orioles" xr:uid="{B2C4AF57-D648-435F-9FC5-1E42A104CA5F}"/>
     <hyperlink ref="L9" r:id="rId22" location="baltimore-orioles" xr:uid="{525694E1-79B3-492C-98A2-F2B30CF16BE4}"/>
-    <hyperlink ref="C21" r:id="rId23" location="turkey" xr:uid="{0BC954B6-DB6B-490E-A5FE-C635E9661026}"/>
+    <hyperlink ref="C23" r:id="rId23" location="turkey" xr:uid="{0BC954B6-DB6B-490E-A5FE-C635E9661026}"/>
     <hyperlink ref="C4" r:id="rId24" location="blue-and-gold-macaw" xr:uid="{11D06A63-8E8E-499B-937E-2C70F05116F5}"/>
     <hyperlink ref="N8" r:id="rId25" location="budgies" xr:uid="{D572DF12-2022-45A5-A42F-46C83D018991}"/>
-    <hyperlink ref="B17" r:id="rId26" location="rosellas" xr:uid="{6146D12B-BF19-4A16-812F-2506D89642C4}"/>
-    <hyperlink ref="M17" r:id="rId27" location="rosellas" xr:uid="{4EF6656E-7A1F-4791-840B-7E5DB86A13ED}"/>
+    <hyperlink ref="B18" r:id="rId26" location="rosellas" xr:uid="{6146D12B-BF19-4A16-812F-2506D89642C4}"/>
+    <hyperlink ref="M18" r:id="rId27" location="rosellas" xr:uid="{4EF6656E-7A1F-4791-840B-7E5DB86A13ED}"/>
     <hyperlink ref="O13" r:id="rId28" location="kakarikis" xr:uid="{8EC76BC4-C230-4FA4-AB36-0619E31DD89B}"/>
-    <hyperlink ref="P20" r:id="rId29" location="tragopans-satyr-tragopan-cabots-tragopan-temmincks-tragopan" xr:uid="{F6675E90-8AAD-4535-9581-742A3098B0CD}"/>
-    <hyperlink ref="Q14" r:id="rId30" location="pheasants" xr:uid="{C270DFE7-2E89-44BB-BC6C-045A6EDAC2AB}"/>
-    <hyperlink ref="R16" r:id="rId31" location="red-whiskered-bulbuls" xr:uid="{37C523B6-4015-44BB-9622-F50435561ED9}"/>
+    <hyperlink ref="P22" r:id="rId29" location="tragopans-satyr-tragopan-cabots-tragopan-temmincks-tragopan" xr:uid="{F6675E90-8AAD-4535-9581-742A3098B0CD}"/>
+    <hyperlink ref="Q15" r:id="rId30" location="pheasants" xr:uid="{C270DFE7-2E89-44BB-BC6C-045A6EDAC2AB}"/>
+    <hyperlink ref="R17" r:id="rId31" location="red-whiskered-bulbuls" xr:uid="{37C523B6-4015-44BB-9622-F50435561ED9}"/>
     <hyperlink ref="C10" r:id="rId32" location="green-cheek-conure" xr:uid="{6CE42B46-C4DA-4AB4-8308-8B8CA1186C91}"/>
     <hyperlink ref="D10" r:id="rId33" location="green-cheek-conure" xr:uid="{E31F3261-8608-4738-8676-DD8F102587A3}"/>
     <hyperlink ref="J10" r:id="rId34" location="green-cheek-conure" xr:uid="{51462BD2-FE23-4792-A3B2-E873C6E54878}"/>
     <hyperlink ref="A2" location="Sheet2!A1" display="Afican Grey Parrot" xr:uid="{675F422C-684F-487C-BB7A-B3BC35B042C7}"/>
     <hyperlink ref="A3" location="Sheet2!A4" display="Baltimore Orioles" xr:uid="{BAB3674E-B8CE-4169-9591-39D6A3D71D3A}"/>
-    <hyperlink ref="A4" location="Sheet2!A8" display="Blue and Gold Macaw" xr:uid="{FC04B357-FF0B-4070-AADC-32356ADDFDEC}"/>
+    <hyperlink ref="A4" location="Sheet2!A6" display="Blue and Gold Macaw" xr:uid="{FC04B357-FF0B-4070-AADC-32356ADDFDEC}"/>
     <hyperlink ref="A5" location="Sheet2!A8" display="Blue Jay" xr:uid="{CC792666-F305-4A9B-8862-5CD4FF96CB39}"/>
-    <hyperlink ref="A6" location="Sheet2!A10" display="Blue-bellied Roller" xr:uid="{7E14444F-C176-46C5-AEE4-171C90E5CCC7}"/>
-    <hyperlink ref="A7" location="Sheet2!A12" display="Blue-Crowned Lory" xr:uid="{88D6FC73-E4B9-4DE8-9C77-74FB6A2BDBB5}"/>
-    <hyperlink ref="A8" location="Sheet2!A17" display="Budgies" xr:uid="{B4F08AD4-3EEF-4DD7-B153-C5A98A30C11C}"/>
-    <hyperlink ref="A9" location="Sheet2!A19" display="Eastern Bluebird" xr:uid="{37145637-03FB-4630-ABF6-B7FFC1AAB3E4}"/>
-    <hyperlink ref="A10" location="Sheet2!A21" display="Green-cheeked Conure" xr:uid="{60B98B26-120F-4767-9F3F-118279A83351}"/>
-    <hyperlink ref="A11" location="Sheet2!A23" display="Hawk-headed Parrot" xr:uid="{3395D274-6595-4C19-8AA7-D8CF40FEB7F9}"/>
-    <hyperlink ref="A12" location="Sheet2!A26" display="Jackson's Hornbill" xr:uid="{8DC9F751-84B3-4BF6-9A2D-BF75BD031D59}"/>
-    <hyperlink ref="A13" location="Sheet2!A28" display="Kakarikis" xr:uid="{EC304A4A-B204-4BA5-8E3B-2820AEEF0EE4}"/>
-    <hyperlink ref="A14" location="Sheet2!A30" display="Pheasants" xr:uid="{B7110158-F165-4ADC-8CF8-14AD436FDE4F}"/>
-    <hyperlink ref="A15" location="Sheet2!A32" display="Red-Crested Cardinal" xr:uid="{B9E35CFB-CC88-4994-8763-DF463266B17D}"/>
-    <hyperlink ref="A16" location="Sheet2!A35" display="Red-Whiskered Bulbuls" xr:uid="{5FB762DB-7345-4D4E-BE83-2BF0EB1763B2}"/>
-    <hyperlink ref="A17" location="Sheet2!A37" display="Rosellas" xr:uid="{047497A4-05CC-4574-A816-97543156F646}"/>
-    <hyperlink ref="A18" location="Sheet2!A39" display="Sun conures" xr:uid="{32E38E49-E929-4CB5-A6B4-C4D366A64E60}"/>
-    <hyperlink ref="A19" location="Sheet2!A43" display="Superb Starling" xr:uid="{5C06126D-1723-45A5-A7AF-EA7FE965644C}"/>
-    <hyperlink ref="A20" location="Sheet2!A45" display="Tragopans" xr:uid="{AFE94B64-5D31-40A5-B21C-7E647E449AAA}"/>
-    <hyperlink ref="A21" location="Sheet2!A47" display="Turkey" xr:uid="{52099EE1-9FE7-46B6-AFBF-FA8E055AAC77}"/>
-    <hyperlink ref="A22" location="Sheet2!A49" display="Victoria Crowned Pigeon" xr:uid="{24E40988-5682-4EDE-833F-F0E1A92DF0C9}"/>
-    <hyperlink ref="A23" location="Sheet2!A51" display="Vulturine Guineafowl" xr:uid="{CE0B833F-8C15-4A04-876E-CF3765FAA35D}"/>
-    <hyperlink ref="A24" location="Sheet2!A54" display="White-crested Laughing Thrush" xr:uid="{6993FECA-C7EE-44BF-826A-006901255C8E}"/>
-    <hyperlink ref="A25" location="Sheet2!A56" display="Yellow-Faced Mynahs" xr:uid="{D7777EDD-84EB-42D5-BA06-BF158A4AA079}"/>
+    <hyperlink ref="A6" location="Sheet2!A11" display="Blue-bellied Roller" xr:uid="{7E14444F-C176-46C5-AEE4-171C90E5CCC7}"/>
+    <hyperlink ref="A7" location="Sheet2!A13" display="Blue-Crowned Lory" xr:uid="{88D6FC73-E4B9-4DE8-9C77-74FB6A2BDBB5}"/>
+    <hyperlink ref="A8" location="Sheet2!A19" display="Budgies" xr:uid="{B4F08AD4-3EEF-4DD7-B153-C5A98A30C11C}"/>
+    <hyperlink ref="A9" location="Sheet2!A21" display="Eastern Bluebird" xr:uid="{37145637-03FB-4630-ABF6-B7FFC1AAB3E4}"/>
+    <hyperlink ref="A10" location="Sheet2!A23" display="Green-cheeked Conure" xr:uid="{60B98B26-120F-4767-9F3F-118279A83351}"/>
+    <hyperlink ref="A11" location="Sheet2!A25" display="Hawk-headed Parrot" xr:uid="{3395D274-6595-4C19-8AA7-D8CF40FEB7F9}"/>
+    <hyperlink ref="A12" location="Sheet2!A28" display="Jackson's Hornbill" xr:uid="{8DC9F751-84B3-4BF6-9A2D-BF75BD031D59}"/>
+    <hyperlink ref="A13" location="Sheet2!A32" display="Kakarikis" xr:uid="{EC304A4A-B204-4BA5-8E3B-2820AEEF0EE4}"/>
+    <hyperlink ref="A15" location="Sheet2!A36" display="Pheasants" xr:uid="{B7110158-F165-4ADC-8CF8-14AD436FDE4F}"/>
+    <hyperlink ref="A16" location="Sheet2!A38" display="Red-Crested Cardinal" xr:uid="{B9E35CFB-CC88-4994-8763-DF463266B17D}"/>
+    <hyperlink ref="A17" location="Sheet2!A42" display="Red-Whiskered Bulbuls" xr:uid="{5FB762DB-7345-4D4E-BE83-2BF0EB1763B2}"/>
+    <hyperlink ref="A18" location="Sheet2!A44" display="Rosellas" xr:uid="{047497A4-05CC-4574-A816-97543156F646}"/>
+    <hyperlink ref="A19" location="Sheet2!A46" display="Sun conures" xr:uid="{32E38E49-E929-4CB5-A6B4-C4D366A64E60}"/>
+    <hyperlink ref="A20" location="Sheet2!A50" display="Superb Starling" xr:uid="{5C06126D-1723-45A5-A7AF-EA7FE965644C}"/>
+    <hyperlink ref="A22" location="Sheet2!A55" display="Tragopans" xr:uid="{AFE94B64-5D31-40A5-B21C-7E647E449AAA}"/>
+    <hyperlink ref="A23" location="Sheet2!A57" display="Turkey" xr:uid="{52099EE1-9FE7-46B6-AFBF-FA8E055AAC77}"/>
+    <hyperlink ref="A24" location="Sheet2!A59" display="Victoria Crowned Pigeon" xr:uid="{24E40988-5682-4EDE-833F-F0E1A92DF0C9}"/>
+    <hyperlink ref="A25" location="Sheet2!A62" display="Vulturine Guineafowl" xr:uid="{CE0B833F-8C15-4A04-876E-CF3765FAA35D}"/>
+    <hyperlink ref="A27" location="Sheet2!A67" display="White-crested Laughing Thrush" xr:uid="{6993FECA-C7EE-44BF-826A-006901255C8E}"/>
+    <hyperlink ref="A28" location="Sheet2!A69" display="Yellow-Faced Mynahs" xr:uid="{D7777EDD-84EB-42D5-BA06-BF158A4AA079}"/>
+    <hyperlink ref="A14" location="Sheet2!A34" display="Northern Crested Coua" xr:uid="{4960FACF-5246-45F7-BE49-2F21D77585DC}"/>
+    <hyperlink ref="A21" location="Sheet2!A53" display="Taveta Golden Weaver" xr:uid="{20243604-E488-4C11-BAE8-2C458A359217}"/>
+    <hyperlink ref="A26" location="Sheet2!A65" display="White-Headed Buffalo Weaver" xr:uid="{E05CE34F-89BF-4B93-8DCC-9A0193C17F53}"/>
+    <hyperlink ref="B14" r:id="rId35" location="northern-crested-coua" xr:uid="{1B6E46B5-334D-44A6-9B38-577461546DD5}"/>
+    <hyperlink ref="B21" r:id="rId36" location="taveta-golden-weavers" xr:uid="{BF336739-FC07-403D-869B-C89618A84E5A}"/>
+    <hyperlink ref="B26" r:id="rId37" location="white-headed-buffalo-weaver" xr:uid="{29EAF6B5-DD2C-48C8-AB6B-8706A816FC4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD574CA-E957-4357-8D08-5FC01D6ACA88}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4079,12 +4186,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -4092,7 +4199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4108,214 +4215,287 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B25" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B26" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B24" s="12" t="s">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A29" s="6"/>
+      <c r="B29" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B47" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="12" t="s">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B48" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="12" t="s">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B41" s="12" t="s">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="12" t="s">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A60" s="1"/>
+      <c r="B60" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="12" t="s">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B70" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="12" t="s">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="B71" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B52" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B57" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B58" s="12" t="s">
-        <v>74</v>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
